--- a/examples/datasheet/兵种.xlsx
+++ b/examples/datasheet/兵种.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\Cpp\basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="@meta" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$B$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="97">
   <si>
     <t>string</t>
   </si>
@@ -531,6 +531,77 @@
   <si>
     <t>BombLoad, Duration, TriggerInterval</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt16</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nableBurn</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧特效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -879,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -909,155 +980,161 @@
     <col min="24" max="24" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" t="s">
         <v>3</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T2" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="V2" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>87</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>22</v>
-      </c>
       <c r="W2" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="X2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1130,8 +1207,11 @@
       <c r="X3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1196,7 +1276,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1261,7 +1341,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1325,8 +1405,11 @@
       <c r="X6">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1390,8 +1473,11 @@
       <c r="X7">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1455,8 +1541,11 @@
       <c r="X8">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1520,8 +1609,11 @@
       <c r="X9">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1585,8 +1677,11 @@
       <c r="X10">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1651,7 +1746,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1716,7 +1811,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1781,7 +1876,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1846,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1911,7 +2006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3703,10 +3798,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="Q2:T2">
+  <conditionalFormatting sqref="Q1:T1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3715,7 +3811,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3748,24 +3844,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/examples/datasheet/兵种.xlsx
+++ b/examples/datasheet/兵种.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\datasheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="7830"/>
+    <workbookView windowWidth="22860" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="88">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>NameID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BuildingName</t>
+  </si>
+  <si>
+    <t>BuildingLevel</t>
+  </si>
+  <si>
+    <t>RequireSpace</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>UpgradeTime</t>
+  </si>
+  <si>
+    <t>UpgradeMaterialID</t>
+  </si>
+  <si>
+    <t>UpgradeMaterialNum</t>
+  </si>
+  <si>
+    <t>ConsumeMaterial</t>
+  </si>
+  <si>
+    <t>ConsumeMaterialNum</t>
+  </si>
+  <si>
+    <t>ConsumeTime</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>BombLoad</t>
+  </si>
+  <si>
+    <t>Hurt</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>TriggerInterval</t>
+  </si>
+  <si>
+    <t>SearchScope</t>
+  </si>
+  <si>
+    <t>AtkFrequency</t>
+  </si>
+  <si>
+    <t>AtkRange</t>
+  </si>
+  <si>
+    <t>MovingSpeed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nableBurn</t>
+    </r>
+  </si>
   <si>
     <t>string</t>
   </si>
@@ -34,70 +123,60 @@
     <t>uint32</t>
   </si>
   <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt16</t>
+    </r>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>NameID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>BuildingName</t>
-  </si>
-  <si>
-    <t>BuildingLevel</t>
-  </si>
-  <si>
-    <t>RequireSpace</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>UpgradeTime</t>
-  </si>
-  <si>
-    <t>UpgradeMaterialID</t>
-  </si>
-  <si>
-    <t>UpgradeMaterialNum</t>
-  </si>
-  <si>
-    <t>ConsumeMaterial</t>
-  </si>
-  <si>
-    <t>ConsumeMaterialNum</t>
-  </si>
-  <si>
-    <t>ConsumeTime</t>
-  </si>
-  <si>
-    <t>Act</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>SearchScope</t>
-  </si>
-  <si>
-    <t>AtkFrequency</t>
-  </si>
-  <si>
-    <t>AtkRange</t>
-  </si>
-  <si>
-    <t>MovingSpeed</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>士兵ID</t>
@@ -172,6 +251,9 @@
     <t>移动速度</t>
   </si>
   <si>
+    <t>燃烧特效</t>
+  </si>
+  <si>
     <t>Marine</t>
   </si>
   <si>
@@ -217,41 +299,20 @@
     <t>程序导出参数</t>
   </si>
   <si>
+    <t>class_name</t>
+  </si>
+  <si>
     <t>SoldierPropertyDefine</t>
   </si>
   <si>
-    <t>兵种属性配置</t>
-  </si>
-  <si>
-    <t>类型行</t>
-  </si>
-  <si>
-    <t>名字行</t>
-  </si>
-  <si>
-    <t>注释行</t>
-  </si>
-  <si>
-    <t>数据从哪一行开始</t>
-  </si>
-  <si>
-    <t>数据从哪一行结束</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>Get函数包含的参数（列）</t>
-  </si>
-  <si>
-    <t>GetRange函数包含的参数（列）</t>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>class</t>
     </r>
     <r>
@@ -259,7 +320,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,18 +335,26 @@
       </rPr>
       <t>comment</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵种属性配置</t>
   </si>
   <si>
     <r>
-      <t>type</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -302,18 +370,26 @@
       </rPr>
       <t>row</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字行</t>
   </si>
   <si>
     <r>
-      <t>name</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -329,10 +405,19 @@
       </rPr>
       <t>row</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型行</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>comment</t>
     </r>
     <r>
@@ -340,7 +425,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -356,10 +440,19 @@
       </rPr>
       <t>row</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释行</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>data</t>
     </r>
     <r>
@@ -367,7 +460,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -388,7 +480,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -404,10 +495,19 @@
       </rPr>
       <t>row</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据从哪一行开始</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>data</t>
     </r>
     <r>
@@ -415,7 +515,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,7 +535,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -452,163 +550,22 @@
       </rPr>
       <t>row</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keys</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keys</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skipped_fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerInterval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳过这些列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombLoad</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BombLoad, Duration, TriggerInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt16</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>float64</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nableBurn</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧特效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据从哪一行结束</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,7 +574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,27 +584,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -654,19 +927,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -684,9 +1247,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -944,19 +1504,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
@@ -980,252 +1540,252 @@
     <col min="24" max="24" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1240,13 +1800,13 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>1500</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>80</v>
@@ -1276,21 +1836,21 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -1305,13 +1865,13 @@
         <v>250</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <v>6000</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>270</v>
@@ -1335,27 +1895,27 @@
         <v>0.2</v>
       </c>
       <c r="W5">
-        <v>5.0289999999999999</v>
+        <v>5.029</v>
       </c>
       <c r="X5">
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1370,13 +1930,13 @@
         <v>1420</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K6">
         <v>11600</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M6">
         <v>460</v>
@@ -1400,7 +1960,7 @@
         <v>0.2</v>
       </c>
       <c r="W6">
-        <v>5.3579999999999997</v>
+        <v>5.358</v>
       </c>
       <c r="X6">
         <v>3.9</v>
@@ -1409,21 +1969,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1438,13 +1998,13 @@
         <v>2290</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K7">
         <v>18700</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M7">
         <v>650</v>
@@ -1468,7 +2028,7 @@
         <v>0.2</v>
       </c>
       <c r="W7">
-        <v>5.6870000000000003</v>
+        <v>5.687</v>
       </c>
       <c r="X7">
         <v>3.9</v>
@@ -1477,21 +2037,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1506,13 +2066,13 @@
         <v>2870</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K8">
         <v>30000</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M8">
         <v>900</v>
@@ -1545,21 +2105,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -1574,13 +2134,13 @@
         <v>4450</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K9">
         <v>50000</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>1250</v>
@@ -1604,7 +2164,7 @@
         <v>0.2</v>
       </c>
       <c r="W9">
-        <v>6.3449999999999998</v>
+        <v>6.345</v>
       </c>
       <c r="X9">
         <v>3.9</v>
@@ -1613,21 +2173,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1642,13 +2202,13 @@
         <v>7160</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K10">
         <v>80000</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M10">
         <v>1600</v>
@@ -1672,7 +2232,7 @@
         <v>0.2</v>
       </c>
       <c r="W10">
-        <v>6.6740000000000004</v>
+        <v>6.674</v>
       </c>
       <c r="X10">
         <v>3.9</v>
@@ -1681,21 +2241,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1710,13 +2270,13 @@
         <v>14300</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K11">
         <v>120000</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M11">
         <v>1800</v>
@@ -1740,27 +2300,27 @@
         <v>0.2</v>
       </c>
       <c r="W11">
-        <v>7.0030000000000001</v>
+        <v>7.003</v>
       </c>
       <c r="X11">
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -1775,13 +2335,13 @@
         <v>19100</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K12">
         <v>170000</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M12">
         <v>1700</v>
@@ -1805,27 +2365,27 @@
         <v>0.2</v>
       </c>
       <c r="W12">
-        <v>7.3319999999999999</v>
+        <v>7.332</v>
       </c>
       <c r="X12">
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1840,13 +2400,13 @@
         <v>34400</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K13">
         <v>350000</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M13">
         <v>3150</v>
@@ -1870,27 +2430,27 @@
         <v>0.2</v>
       </c>
       <c r="W13">
-        <v>7.6609999999999996</v>
+        <v>7.661</v>
       </c>
       <c r="X13">
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1905,13 +2465,13 @@
         <v>2290</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K14">
         <v>14960</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M14">
         <v>750</v>
@@ -1935,27 +2495,27 @@
         <v>0.1</v>
       </c>
       <c r="W14">
-        <v>3.5310000000000001</v>
+        <v>3.531</v>
       </c>
       <c r="X14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1970,13 +2530,13 @@
         <v>2870</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K15">
         <v>24000</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M15">
         <v>1080</v>
@@ -2006,21 +2566,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -2035,13 +2595,13 @@
         <v>4450</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K16">
         <v>39600</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M16">
         <v>1580</v>
@@ -2065,27 +2625,27 @@
         <v>0.1</v>
       </c>
       <c r="W16">
-        <v>3.9929999999999999</v>
+        <v>3.993</v>
       </c>
       <c r="X16">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -2100,13 +2660,13 @@
         <v>7160</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K17">
         <v>62880</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M17">
         <v>2200</v>
@@ -2130,27 +2690,27 @@
         <v>0.1</v>
       </c>
       <c r="W17">
-        <v>4.2240000000000002</v>
+        <v>4.224</v>
       </c>
       <c r="X17">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -2165,13 +2725,13 @@
         <v>14300</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K18">
         <v>98640</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M18">
         <v>2960</v>
@@ -2195,27 +2755,27 @@
         <v>0.1</v>
       </c>
       <c r="W18">
-        <v>4.4550000000000001</v>
+        <v>4.455</v>
       </c>
       <c r="X18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F19">
         <v>9</v>
@@ -2230,13 +2790,13 @@
         <v>19100</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K19">
         <v>133920</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M19">
         <v>3350</v>
@@ -2260,27 +2820,27 @@
         <v>0.1</v>
       </c>
       <c r="W19">
-        <v>4.6859999999999999</v>
+        <v>4.686</v>
       </c>
       <c r="X19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2295,13 +2855,13 @@
         <v>34400</v>
       </c>
       <c r="J20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K20">
         <v>282560</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M20">
         <v>5650</v>
@@ -2325,27 +2885,27 @@
         <v>0.1</v>
       </c>
       <c r="W20">
-        <v>4.9169999999999998</v>
+        <v>4.917</v>
       </c>
       <c r="X20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B21">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F21">
         <v>11</v>
@@ -2360,13 +2920,13 @@
         <v>56900</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K21">
         <v>432800</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M21">
         <v>6490</v>
@@ -2390,27 +2950,27 @@
         <v>0.1</v>
       </c>
       <c r="W21">
-        <v>5.1479999999999997</v>
+        <v>5.148</v>
       </c>
       <c r="X21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F22">
         <v>11</v>
@@ -2425,13 +2985,13 @@
         <v>58800</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K22">
         <v>578680</v>
       </c>
       <c r="L22" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M22">
         <v>5790</v>
@@ -2455,27 +3015,27 @@
         <v>0.1</v>
       </c>
       <c r="W22">
-        <v>5.3789999999999996</v>
+        <v>5.379</v>
       </c>
       <c r="X22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F23">
         <v>12</v>
@@ -2490,13 +3050,13 @@
         <v>60700</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K23">
         <v>724560</v>
       </c>
       <c r="L23" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M23">
         <v>6520</v>
@@ -2526,21 +3086,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>5</v>
@@ -2555,13 +3115,13 @@
         <v>2870</v>
       </c>
       <c r="J24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K24">
         <v>45000</v>
       </c>
       <c r="L24" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M24">
         <v>2250</v>
@@ -2585,27 +3145,27 @@
         <v>2</v>
       </c>
       <c r="W24">
-        <v>8.2080000000000002</v>
+        <v>8.208</v>
       </c>
       <c r="X24">
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -2620,13 +3180,13 @@
         <v>4450</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K25">
         <v>74250</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M25">
         <v>3340</v>
@@ -2650,27 +3210,27 @@
         <v>2</v>
       </c>
       <c r="W25">
-        <v>8.7119999999999997</v>
+        <v>8.712</v>
       </c>
       <c r="X25">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -2685,13 +3245,13 @@
         <v>7160</v>
       </c>
       <c r="J26" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K26">
         <v>117900</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M26">
         <v>4720</v>
@@ -2715,27 +3275,27 @@
         <v>2</v>
       </c>
       <c r="W26">
-        <v>9.2159999999999993</v>
+        <v>9.216</v>
       </c>
       <c r="X26">
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -2750,13 +3310,13 @@
         <v>14300</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K27">
         <v>184950</v>
       </c>
       <c r="L27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M27">
         <v>6470</v>
@@ -2780,27 +3340,27 @@
         <v>2</v>
       </c>
       <c r="W27">
-        <v>9.7200000000000006</v>
+        <v>9.72</v>
       </c>
       <c r="X27">
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -2815,13 +3375,13 @@
         <v>19100</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K28">
         <v>251100</v>
       </c>
       <c r="L28" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M28">
         <v>7530</v>
@@ -2851,21 +3411,21 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -2880,13 +3440,13 @@
         <v>34400</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K29">
         <v>529800</v>
       </c>
       <c r="L29" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M29">
         <v>13250</v>
@@ -2916,21 +3476,21 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F30">
         <v>11</v>
@@ -2945,13 +3505,13 @@
         <v>56900</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K30">
         <v>811500</v>
       </c>
       <c r="L30" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M30">
         <v>16230</v>
@@ -2975,27 +3535,27 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>11.231999999999999</v>
+        <v>11.232</v>
       </c>
       <c r="X30">
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F31">
         <v>11</v>
@@ -3010,13 +3570,13 @@
         <v>58800</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K31">
         <v>1085025</v>
       </c>
       <c r="L31" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M31">
         <v>16300</v>
@@ -3040,27 +3600,27 @@
         <v>2</v>
       </c>
       <c r="W31">
-        <v>11.736000000000001</v>
+        <v>11.736</v>
       </c>
       <c r="X31">
         <v>3.5</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B32">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>12</v>
@@ -3075,13 +3635,13 @@
         <v>60700</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K32">
         <v>1358550</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M32">
         <v>13600</v>
@@ -3111,21 +3671,21 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>13</v>
@@ -3140,13 +3700,13 @@
         <v>66900</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K33">
         <v>2189100</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M33">
         <v>19700</v>
@@ -3176,21 +3736,21 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
         <v>62</v>
-      </c>
-      <c r="E34" t="s">
-        <v>52</v>
       </c>
       <c r="F34">
         <v>15</v>
@@ -3205,13 +3765,13 @@
         <v>79300</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K34">
         <v>5374950</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M34">
         <v>268700</v>
@@ -3235,24 +3795,24 @@
         <v>4.84</v>
       </c>
       <c r="X34">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
         <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>52</v>
       </c>
       <c r="F35">
         <v>16</v>
@@ -3267,13 +3827,13 @@
         <v>91900</v>
       </c>
       <c r="J35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K35">
         <v>7627800</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M35">
         <v>343300</v>
@@ -3297,24 +3857,24 @@
         <v>5.12</v>
       </c>
       <c r="X35">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
         <v>62</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
       </c>
       <c r="F36">
         <v>16</v>
@@ -3329,13 +3889,13 @@
         <v>106950</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K36">
         <v>9373500</v>
       </c>
       <c r="L36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M36">
         <v>374900</v>
@@ -3359,24 +3919,24 @@
         <v>5.4</v>
       </c>
       <c r="X36">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
         <v>62</v>
-      </c>
-      <c r="E37" t="s">
-        <v>52</v>
       </c>
       <c r="F37">
         <v>17</v>
@@ -3391,13 +3951,13 @@
         <v>122000</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K37">
         <v>11119200</v>
       </c>
       <c r="L37" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M37">
         <v>389000</v>
@@ -3421,24 +3981,24 @@
         <v>5.68</v>
       </c>
       <c r="X37">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
         <v>62</v>
-      </c>
-      <c r="E38" t="s">
-        <v>52</v>
       </c>
       <c r="F38">
         <v>17</v>
@@ -3453,13 +4013,13 @@
         <v>134500</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K38">
         <v>12795900</v>
       </c>
       <c r="L38" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M38">
         <v>384000</v>
@@ -3483,24 +4043,24 @@
         <v>5.96</v>
       </c>
       <c r="X38">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
         <v>62</v>
-      </c>
-      <c r="E39" t="s">
-        <v>52</v>
       </c>
       <c r="F39">
         <v>18</v>
@@ -3515,13 +4075,13 @@
         <v>147000</v>
       </c>
       <c r="J39" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K39">
         <v>14472600</v>
       </c>
       <c r="L39" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M39">
         <v>362000</v>
@@ -3545,24 +4105,24 @@
         <v>6.24</v>
       </c>
       <c r="X39">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
         <v>62</v>
-      </c>
-      <c r="E40" t="s">
-        <v>52</v>
       </c>
       <c r="F40">
         <v>18</v>
@@ -3577,13 +4137,13 @@
         <v>162500</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K40">
         <v>16078800</v>
       </c>
       <c r="L40" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M40">
         <v>322000</v>
@@ -3607,24 +4167,24 @@
         <v>6.52</v>
       </c>
       <c r="X40">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
         <v>62</v>
-      </c>
-      <c r="E41" t="s">
-        <v>52</v>
       </c>
       <c r="F41">
         <v>19</v>
@@ -3639,13 +4199,13 @@
         <v>178000</v>
       </c>
       <c r="J41" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K41">
         <v>17685000</v>
       </c>
       <c r="L41" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M41">
         <v>265000</v>
@@ -3669,24 +4229,24 @@
         <v>6.8</v>
       </c>
       <c r="X41">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
         <v>62</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
       </c>
       <c r="F42">
         <v>19</v>
@@ -3701,13 +4261,13 @@
         <v>205500</v>
       </c>
       <c r="J42" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K42">
         <v>21375900</v>
       </c>
       <c r="L42" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M42">
         <v>214000</v>
@@ -3731,24 +4291,24 @@
         <v>7.08</v>
       </c>
       <c r="X42">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
         <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>52</v>
       </c>
       <c r="F43">
         <v>20</v>
@@ -3763,13 +4323,13 @@
         <v>233000</v>
       </c>
       <c r="J43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K43">
         <v>25066800</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M43">
         <v>226000</v>
@@ -3793,146 +4353,114 @@
         <v>7.36</v>
       </c>
       <c r="X43">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="Q1:T1">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A11" sqref="$A9:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1">
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/datasheet/兵种.xlsx
+++ b/examples/datasheet/兵种.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="11835"/>
+    <workbookView windowWidth="23940" windowHeight="11655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="@meta" sheetId="3" r:id="rId2"/>
+    <sheet name="SoldierPropertyDefine" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoldierPropertyDefine!$B$2:$B$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -92,26 +91,7 @@
     <t>MovingSpeed</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nableBurn</t>
-    </r>
+    <t>EnableBurn</t>
   </si>
   <si>
     <t>string</t>
@@ -295,265 +275,6 @@
   <si>
     <t>通过治疗部队来帮助我们消灭敌人</t>
   </si>
-  <si>
-    <t>程序导出参数</t>
-  </si>
-  <si>
-    <t>class_name</t>
-  </si>
-  <si>
-    <t>SoldierPropertyDefine</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comment</t>
-    </r>
-  </si>
-  <si>
-    <t>兵种属性配置</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-  </si>
-  <si>
-    <t>名字行</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-  </si>
-  <si>
-    <t>类型行</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-  </si>
-  <si>
-    <t>注释行</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-  </si>
-  <si>
-    <t>数据从哪一行开始</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>end</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>row</t>
-    </r>
-  </si>
-  <si>
-    <t>数据从哪一行结束</t>
-  </si>
 </sst>
 </file>
 
@@ -561,9 +282,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -574,6 +295,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -588,10 +310,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,64 +362,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,24 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +403,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,7 +434,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,19 +528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,37 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,55 +624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,21 +647,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -954,6 +661,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,8 +691,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -987,6 +705,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,27 +747,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1043,142 +765,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1513,7 +1241,7 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="Y3" sqref="K1:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1537,7 +1265,8 @@
     <col min="21" max="21" width="12.75" customWidth="1"/>
     <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="23" max="23" width="9.5" customWidth="1"/>
-    <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="24" max="24" width="13.75" customWidth="1"/>
+    <col min="25" max="25" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -1571,49 +1300,49 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1648,49 +1377,49 @@
       <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1725,49 +1454,49 @@
       <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Y3" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1965,7 +1694,7 @@
       <c r="X6">
         <v>3.9</v>
       </c>
-      <c r="Y6" s="2" t="b">
+      <c r="Y6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2033,7 +1762,7 @@
       <c r="X7">
         <v>3.9</v>
       </c>
-      <c r="Y7" s="2" t="b">
+      <c r="Y7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +1830,7 @@
       <c r="X8">
         <v>3.9</v>
       </c>
-      <c r="Y8" s="2" t="b">
+      <c r="Y8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2169,7 +1898,7 @@
       <c r="X9">
         <v>3.9</v>
       </c>
-      <c r="Y9" s="2" t="b">
+      <c r="Y9" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2237,7 +1966,7 @@
       <c r="X10">
         <v>3.9</v>
       </c>
-      <c r="Y10" s="2" t="b">
+      <c r="Y10" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4364,103 +4093,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="$A9:$XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/examples/datasheet/兵种.xlsx
+++ b/examples/datasheet/兵种.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23940" windowHeight="11655"/>
+    <workbookView windowWidth="24465" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="SoldierPropertyDefine" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoldierPropertyDefine!$B$2:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoldierPropertyDefine!$B$3:$B$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -18,6 +18,81 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="73">
+  <si>
+    <t>士兵ID</t>
+  </si>
+  <si>
+    <t>士兵等级</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>所属建筑</t>
+  </si>
+  <si>
+    <t>建筑等级</t>
+  </si>
+  <si>
+    <t>登陆艇占用空间</t>
+  </si>
+  <si>
+    <t>体积</t>
+  </si>
+  <si>
+    <t>升级消耗的时间(秒）</t>
+  </si>
+  <si>
+    <t>升级消耗的材料</t>
+  </si>
+  <si>
+    <t>升级消耗的数量</t>
+  </si>
+  <si>
+    <t>生产消耗的材料</t>
+  </si>
+  <si>
+    <t>生产消耗的数量</t>
+  </si>
+  <si>
+    <t>生产消耗的时间（秒/个）</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>载弹量</t>
+  </si>
+  <si>
+    <t>buff伤害</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>触发间隔</t>
+  </si>
+  <si>
+    <t>搜索范围</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>燃烧特效</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -159,81 +234,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>士兵ID</t>
-  </si>
-  <si>
-    <t>士兵等级</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>所属建筑</t>
-  </si>
-  <si>
-    <t>建筑等级</t>
-  </si>
-  <si>
-    <t>登陆艇占用空间</t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
-    <t>升级消耗的时间(秒）</t>
-  </si>
-  <si>
-    <t>升级消耗的材料</t>
-  </si>
-  <si>
-    <t>升级消耗的数量</t>
-  </si>
-  <si>
-    <t>生产消耗的材料</t>
-  </si>
-  <si>
-    <t>生产消耗的数量</t>
-  </si>
-  <si>
-    <t>生产消耗的时间（秒/个）</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>载弹量</t>
-  </si>
-  <si>
-    <t>buff伤害</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>触发间隔</t>
-  </si>
-  <si>
-    <t>搜索范围</t>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-  </si>
-  <si>
-    <t>攻击距离</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>燃烧特效</t>
-  </si>
-  <si>
     <t>Marine</t>
   </si>
   <si>
@@ -281,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -310,24 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,84 +325,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,7 +349,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +420,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,7 +456,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,19 +552,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,37 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,43 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,61 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +647,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -668,23 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,208 +747,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1240,8 +1240,8 @@
   <sheetPr/>
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="K1:Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1250,7 +1250,7 @@
     <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="19.875" customWidth="1"/>
@@ -1342,7 +1342,7 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1354,146 +1354,146 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="N3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="T3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="V3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Y3" s="3" t="s">
@@ -4086,7 +4086,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:T1">
+  <conditionalFormatting sqref="Q2:T2">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/examples/datasheet/兵种.xlsx
+++ b/examples/datasheet/兵种.xlsx
@@ -103,7 +103,7 @@
     <t>NameID</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>#Description</t>
   </si>
   <si>
     <t>BuildingName</t>
@@ -142,31 +142,31 @@
     <t>Hp</t>
   </si>
   <si>
-    <t>BombLoad</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>TriggerInterval</t>
-  </si>
-  <si>
-    <t>SearchScope</t>
-  </si>
-  <si>
-    <t>AtkFrequency</t>
-  </si>
-  <si>
-    <t>AtkRange</t>
-  </si>
-  <si>
-    <t>MovingSpeed</t>
-  </si>
-  <si>
-    <t>EnableBurn</t>
+    <t>C_BombLoad</t>
+  </si>
+  <si>
+    <t>C_Hurt</t>
+  </si>
+  <si>
+    <t>C_Duration</t>
+  </si>
+  <si>
+    <t>C_TriggerInterval</t>
+  </si>
+  <si>
+    <t>C_SearchScope</t>
+  </si>
+  <si>
+    <t>C_AtkFrequency</t>
+  </si>
+  <si>
+    <t>C_AtkRange</t>
+  </si>
+  <si>
+    <t>C_MovingSpeed</t>
+  </si>
+  <si>
+    <t>C_EnableBurn</t>
   </si>
   <si>
     <t>string</t>
@@ -895,8 +895,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1241,32 +1242,35 @@
   <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="19.375" customWidth="1"/>
-    <col min="13" max="13" width="20.5" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="17" max="17" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="21.375" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="24.125" customWidth="1"/>
+    <col min="15" max="15" width="5.125" customWidth="1"/>
+    <col min="16" max="16" width="5.375" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="8.25" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
     <col min="20" max="20" width="16.625" customWidth="1"/>
-    <col min="21" max="21" width="12.75" customWidth="1"/>
-    <col min="22" max="22" width="13.875" customWidth="1"/>
-    <col min="23" max="23" width="9.5" customWidth="1"/>
-    <col min="24" max="24" width="13.75" customWidth="1"/>
-    <col min="25" max="25" width="10.25" customWidth="1"/>
+    <col min="21" max="21" width="14.625" customWidth="1"/>
+    <col min="22" max="22" width="15.75" customWidth="1"/>
+    <col min="23" max="23" width="11.625" customWidth="1"/>
+    <col min="24" max="24" width="15.75" customWidth="1"/>
+    <col min="25" max="25" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -1300,126 +1304,126 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1454,49 +1458,49 @@
       <c r="J3" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Y3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1694,7 +1698,7 @@
       <c r="X6">
         <v>3.9</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1762,7 +1766,7 @@
       <c r="X7">
         <v>3.9</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1830,7 +1834,7 @@
       <c r="X8">
         <v>3.9</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1898,7 +1902,7 @@
       <c r="X9">
         <v>3.9</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1966,7 +1970,7 @@
       <c r="X10">
         <v>3.9</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="5">
         <v>1</v>
       </c>
     </row>
